--- a/RegressionTests/NeuralNetClassifier_Unit_Test_4/aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_4/aptrans_anon.Copyof603992MonthlyPensionBreakdownMillicentPharmaLtdJuly2020upload.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PPSNO</t>
   </si>
@@ -234,7 +234,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1158561</t>
+    <t>1181491</t>
   </si>
   <si>
     <t>399201</t>
@@ -243,40 +243,43 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>08/04/2021</t>
-  </si>
-  <si>
-    <t>21,394.26</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>ILIM March 2021 - A Jackson</t>
-  </si>
-  <si>
-    <t>1157804</t>
-  </si>
-  <si>
-    <t>10,014.79</t>
-  </si>
-  <si>
-    <t>ILIM March 2021</t>
-  </si>
-  <si>
-    <t>1152293</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
-  </si>
-  <si>
-    <t>13,477.31</t>
-  </si>
-  <si>
-    <t>01/02/2021</t>
-  </si>
-  <si>
-    <t>ILIM Feb 21</t>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>9,465.30</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1176100</t>
+  </si>
+  <si>
+    <t>28/07/2021</t>
+  </si>
+  <si>
+    <t>9,419.99</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>ILIM July 2021</t>
+  </si>
+  <si>
+    <t>1171695</t>
+  </si>
+  <si>
+    <t>9,579.92</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>4_Errors_found</t>
@@ -439,14 +442,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -459,6 +454,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -488,7 +491,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -586,11 +589,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1275,7 +1281,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1298,7 +1304,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -1321,7 +1327,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -1344,7 +1350,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -1367,7 +1373,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1390,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -1436,7 +1442,7 @@
     <col min="6" max="6" width="14.428571428571429" style="24"/>
     <col min="7" max="7" width="18" style="24"/>
     <col min="8" max="8" width="12" style="24"/>
-    <col min="9" max="9" width="29" style="24"/>
+    <col min="9" max="9" width="15.714285714285714" style="24"/>
     <col min="10" max="16384" width="10.571428571428571" style="24"/>
   </cols>
   <sheetData>
@@ -1483,31 +1489,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1554,19 +1560,19 @@
         <v>70</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -1574,7 +1580,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>69</v>
@@ -1583,19 +1589,19 @@
         <v>70</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1788,49 +1794,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>85</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
